--- a/一覧.xlsx
+++ b/一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALES\work\git_space\repair_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A93C337-4859-40F9-AF1F-D3771BF50670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A57EEB-A13C-43AB-8C02-230192D406CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="258">
   <si>
     <t>シリーズ</t>
   </si>
@@ -539,9 +539,6 @@
     <t>EIGER</t>
   </si>
   <si>
-    <t>EG253A</t>
-  </si>
-  <si>
     <t>chouette</t>
   </si>
   <si>
@@ -644,180 +641,39 @@
     <t>座:置きクッション　タイプ2　×　2.5</t>
   </si>
   <si>
-    <t>#2004-W</t>
-  </si>
-  <si>
-    <t>45,000</t>
-  </si>
-  <si>
-    <t>49,000</t>
-  </si>
-  <si>
-    <t>58,000</t>
-  </si>
-  <si>
-    <t>99,000</t>
-  </si>
-  <si>
-    <t>112,000</t>
-  </si>
-  <si>
     <t>50mm厚クッション</t>
   </si>
   <si>
-    <t>22,000</t>
-  </si>
-  <si>
-    <t>23,800</t>
-  </si>
-  <si>
-    <t>27,400</t>
-  </si>
-  <si>
-    <t>43,600</t>
-  </si>
-  <si>
-    <t>35,000</t>
-  </si>
-  <si>
-    <t>37,500</t>
-  </si>
-  <si>
-    <t>42,500</t>
-  </si>
-  <si>
-    <t>65,000</t>
-  </si>
-  <si>
-    <t>72,500</t>
-  </si>
-  <si>
     <t>#726/A</t>
   </si>
   <si>
     <t>座(スカート付)</t>
   </si>
   <si>
-    <t>23,000</t>
-  </si>
-  <si>
-    <t>24,000</t>
-  </si>
-  <si>
-    <t>26,000</t>
-  </si>
-  <si>
-    <t>38,000</t>
-  </si>
-  <si>
     <t>HK205W</t>
   </si>
   <si>
-    <t>53,000</t>
-  </si>
-  <si>
-    <t>67,000</t>
-  </si>
-  <si>
-    <t>107,000</t>
-  </si>
-  <si>
-    <t>121,000</t>
-  </si>
-  <si>
     <t>HK260A</t>
   </si>
   <si>
     <t>座+背(スカート付)</t>
   </si>
   <si>
-    <t>34,000</t>
-  </si>
-  <si>
-    <t>36,500</t>
-  </si>
-  <si>
-    <t>41,500</t>
-  </si>
-  <si>
-    <t>64,000</t>
-  </si>
-  <si>
-    <t>71,500</t>
-  </si>
-  <si>
     <t>HK260W</t>
   </si>
   <si>
-    <t>68,000</t>
-  </si>
-  <si>
-    <t>73,000</t>
-  </si>
-  <si>
-    <t>83,000</t>
-  </si>
-  <si>
-    <t>128,000</t>
-  </si>
-  <si>
-    <t>143,000</t>
-  </si>
-  <si>
-    <t>FK250X</t>
-  </si>
-  <si>
-    <t>30,000</t>
-  </si>
-  <si>
-    <t>32,500</t>
-  </si>
-  <si>
-    <t>60,000</t>
-  </si>
-  <si>
-    <t>67,500</t>
-  </si>
-  <si>
     <t>FK640</t>
   </si>
   <si>
     <t>座クッション</t>
   </si>
   <si>
-    <t>27,000</t>
-  </si>
-  <si>
-    <t>44,000</t>
-  </si>
-  <si>
     <t>FK641</t>
   </si>
   <si>
-    <t>29,000</t>
-  </si>
-  <si>
-    <t>46,000</t>
-  </si>
-  <si>
-    <t>51,000</t>
-  </si>
-  <si>
     <t>KA270W/271W</t>
   </si>
   <si>
-    <t>74,000</t>
-  </si>
-  <si>
-    <t>79,000</t>
-  </si>
-  <si>
-    <t>88,000</t>
-  </si>
-  <si>
-    <t>142,000</t>
-  </si>
-  <si>
     <t>NF630Q</t>
   </si>
   <si>
@@ -827,52 +683,16 @@
     <t>NF633</t>
   </si>
   <si>
-    <t>31,000</t>
-  </si>
-  <si>
-    <t>47,000</t>
-  </si>
-  <si>
     <t>NF634</t>
   </si>
   <si>
-    <t>50,000</t>
-  </si>
-  <si>
-    <t>56,000</t>
-  </si>
-  <si>
     <t>NF635</t>
   </si>
   <si>
-    <t>32,000</t>
-  </si>
-  <si>
-    <t>36,000</t>
-  </si>
-  <si>
-    <t>52,000</t>
-  </si>
-  <si>
     <t>RF631</t>
   </si>
   <si>
-    <t>40,000</t>
-  </si>
-  <si>
     <t>RF633</t>
-  </si>
-  <si>
-    <t>37,000</t>
-  </si>
-  <si>
-    <t>39,000</t>
-  </si>
-  <si>
-    <t>43,000</t>
-  </si>
-  <si>
-    <t>61,000</t>
   </si>
   <si>
     <t>画像</t>
@@ -925,10 +745,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本革A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>本革B</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1018,6 +834,22 @@
   </si>
   <si>
     <t>TU20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#2004-W</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EG253A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FK250X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本革D</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1054,12 +886,36 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1100,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1111,6 +967,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1416,17 +1276,18 @@
   <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L149" sqref="L149"/>
+      <selection pane="bottomLeft" activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.6328125" customWidth="1"/>
-    <col min="11" max="11" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="10" max="10" width="51.6640625" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -1434,40 +1295,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>283</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1483,20 +1344,20 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>17000</v>
-      </c>
-      <c r="F2">
-        <v>19000</v>
-      </c>
-      <c r="G2">
-        <v>23000</v>
-      </c>
-      <c r="H2">
-        <v>33000</v>
-      </c>
-      <c r="I2">
-        <v>37000</v>
+      <c r="E2" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H2" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I2" s="4">
+        <v>42000</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -1521,20 +1382,20 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>17000</v>
-      </c>
-      <c r="F3">
-        <v>19000</v>
-      </c>
-      <c r="G3">
-        <v>23000</v>
-      </c>
-      <c r="H3">
-        <v>33000</v>
-      </c>
-      <c r="I3">
-        <v>37000</v>
+      <c r="E3" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G3" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H3" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I3" s="4">
+        <v>42000</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -1556,20 +1417,20 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>17000</v>
-      </c>
-      <c r="F4">
-        <v>19000</v>
-      </c>
-      <c r="G4">
-        <v>23000</v>
-      </c>
-      <c r="H4">
-        <v>33000</v>
-      </c>
-      <c r="I4">
-        <v>37000</v>
+      <c r="E4" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F4" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G4" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H4" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I4" s="4">
+        <v>42000</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -1591,20 +1452,20 @@
       <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="E5">
-        <v>25000</v>
-      </c>
-      <c r="F5">
-        <v>27500</v>
-      </c>
-      <c r="G5">
-        <v>32500</v>
-      </c>
-      <c r="H5">
-        <v>55000</v>
-      </c>
-      <c r="I5">
-        <v>62500</v>
+      <c r="E5" s="4">
+        <v>27000</v>
+      </c>
+      <c r="F5" s="4">
+        <v>31000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>35000</v>
+      </c>
+      <c r="H5" s="4">
+        <v>62000</v>
+      </c>
+      <c r="I5" s="4">
+        <v>72000</v>
       </c>
       <c r="J5" t="s">
         <v>53</v>
@@ -1618,7 +1479,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
         <v>51</v>
@@ -1626,20 +1487,17 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>204</v>
-      </c>
-      <c r="F6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G6" t="s">
-        <v>206</v>
-      </c>
-      <c r="H6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I6" t="s">
-        <v>208</v>
+      <c r="E6" s="7">
+        <v>49000</v>
+      </c>
+      <c r="F6" s="7">
+        <v>53000</v>
+      </c>
+      <c r="G6" s="7">
+        <v>66000</v>
+      </c>
+      <c r="H6" s="7">
+        <v>187000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1658,20 +1516,20 @@
       <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="E7">
-        <v>54000</v>
-      </c>
-      <c r="F7">
-        <v>57500</v>
-      </c>
-      <c r="G7">
-        <v>64500</v>
-      </c>
-      <c r="H7">
-        <v>96000</v>
-      </c>
-      <c r="I7">
-        <v>106500</v>
+      <c r="E7" s="4">
+        <v>58000</v>
+      </c>
+      <c r="F7" s="4">
+        <v>62000</v>
+      </c>
+      <c r="G7" s="4">
+        <v>66000</v>
+      </c>
+      <c r="H7" s="4">
+        <v>93000</v>
+      </c>
+      <c r="I7" s="4">
+        <v>103000</v>
       </c>
       <c r="J7" t="s">
         <v>56</v>
@@ -1693,20 +1551,20 @@
       <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="E8">
-        <v>42000</v>
-      </c>
-      <c r="F8">
-        <v>44500</v>
-      </c>
-      <c r="G8">
-        <v>49500</v>
-      </c>
-      <c r="H8">
-        <v>72000</v>
-      </c>
-      <c r="I8">
-        <v>79500</v>
+      <c r="E8" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G8" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H8" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I8" s="4">
+        <v>90000</v>
       </c>
       <c r="J8" t="s">
         <v>59</v>
@@ -1728,20 +1586,20 @@
       <c r="D9" t="s">
         <v>106</v>
       </c>
-      <c r="E9">
-        <v>30000</v>
-      </c>
-      <c r="F9">
-        <v>32500</v>
-      </c>
-      <c r="G9">
-        <v>37500</v>
-      </c>
-      <c r="H9">
-        <v>60000</v>
-      </c>
-      <c r="I9">
-        <v>67500</v>
+      <c r="E9" s="4">
+        <v>32000</v>
+      </c>
+      <c r="F9" s="4">
+        <v>36000</v>
+      </c>
+      <c r="G9" s="4">
+        <v>40000</v>
+      </c>
+      <c r="H9" s="4">
+        <v>67000</v>
+      </c>
+      <c r="I9" s="4">
+        <v>77000</v>
       </c>
       <c r="J9" t="s">
         <v>107</v>
@@ -1763,20 +1621,20 @@
       <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="E10">
-        <v>42000</v>
-      </c>
-      <c r="F10">
-        <v>44500</v>
-      </c>
-      <c r="G10">
-        <v>49500</v>
-      </c>
-      <c r="H10">
-        <v>72000</v>
-      </c>
-      <c r="I10">
-        <v>79500</v>
+      <c r="E10" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F10" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G10" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H10" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I10" s="4">
+        <v>90000</v>
       </c>
       <c r="J10" t="s">
         <v>59</v>
@@ -1798,20 +1656,20 @@
       <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11">
-        <v>42000</v>
-      </c>
-      <c r="F11">
-        <v>44500</v>
-      </c>
-      <c r="G11">
-        <v>49500</v>
-      </c>
-      <c r="H11">
-        <v>72000</v>
-      </c>
-      <c r="I11">
-        <v>79500</v>
+      <c r="E11" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F11" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G11" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H11" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I11" s="4">
+        <v>90000</v>
       </c>
       <c r="J11" t="s">
         <v>59</v>
@@ -1833,20 +1691,20 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="E12">
-        <v>17000</v>
-      </c>
-      <c r="F12">
-        <v>19000</v>
-      </c>
-      <c r="G12">
-        <v>23000</v>
-      </c>
-      <c r="H12">
-        <v>33000</v>
-      </c>
-      <c r="I12">
-        <v>37000</v>
+      <c r="E12" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F12" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G12" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H12" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I12" s="4">
+        <v>42000</v>
       </c>
       <c r="J12" t="s">
         <v>7</v>
@@ -1868,20 +1726,20 @@
       <c r="D13" t="s">
         <v>113</v>
       </c>
-      <c r="E13">
-        <v>14000</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="4">
         <v>15000</v>
       </c>
-      <c r="G13">
-        <v>17000</v>
-      </c>
-      <c r="H13">
-        <v>26000</v>
-      </c>
-      <c r="I13">
-        <v>29000</v>
+      <c r="F13" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G13" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H13" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I13" s="4">
+        <v>33000</v>
       </c>
       <c r="J13" t="s">
         <v>114</v>
@@ -1903,20 +1761,20 @@
       <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="E14">
-        <v>42000</v>
-      </c>
-      <c r="F14">
-        <v>44500</v>
-      </c>
-      <c r="G14">
-        <v>49500</v>
-      </c>
-      <c r="H14">
-        <v>72000</v>
-      </c>
-      <c r="I14">
-        <v>79500</v>
+      <c r="E14" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F14" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G14" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H14" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I14" s="4">
+        <v>90000</v>
       </c>
       <c r="J14" t="s">
         <v>59</v>
@@ -1938,20 +1796,20 @@
       <c r="D15" t="s">
         <v>113</v>
       </c>
-      <c r="E15">
-        <v>14000</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="4">
         <v>15000</v>
       </c>
-      <c r="G15">
-        <v>17000</v>
-      </c>
-      <c r="H15">
-        <v>26000</v>
-      </c>
-      <c r="I15">
-        <v>29000</v>
+      <c r="F15" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G15" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H15" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I15" s="4">
+        <v>33000</v>
       </c>
       <c r="J15" t="s">
         <v>114</v>
@@ -1973,20 +1831,20 @@
       <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="E16">
-        <v>42000</v>
-      </c>
-      <c r="F16">
-        <v>44500</v>
-      </c>
-      <c r="G16">
-        <v>49500</v>
-      </c>
-      <c r="H16">
-        <v>72000</v>
-      </c>
-      <c r="I16">
-        <v>79500</v>
+      <c r="E16" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F16" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G16" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H16" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I16" s="4">
+        <v>90000</v>
       </c>
       <c r="J16" t="s">
         <v>59</v>
@@ -2008,20 +1866,20 @@
       <c r="D17" t="s">
         <v>113</v>
       </c>
-      <c r="E17">
-        <v>14000</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="4">
         <v>15000</v>
       </c>
-      <c r="G17">
-        <v>17000</v>
-      </c>
-      <c r="H17">
-        <v>26000</v>
-      </c>
-      <c r="I17">
-        <v>29000</v>
+      <c r="F17" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G17" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H17" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I17" s="4">
+        <v>33000</v>
       </c>
       <c r="J17" t="s">
         <v>114</v>
@@ -2043,20 +1901,20 @@
       <c r="D18" t="s">
         <v>113</v>
       </c>
-      <c r="E18">
-        <v>14000</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="4">
         <v>15000</v>
       </c>
-      <c r="G18">
-        <v>17000</v>
-      </c>
-      <c r="H18">
-        <v>26000</v>
-      </c>
-      <c r="I18">
-        <v>29000</v>
+      <c r="F18" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G18" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H18" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I18" s="4">
+        <v>33000</v>
       </c>
       <c r="J18" t="s">
         <v>114</v>
@@ -2070,28 +1928,25 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>221</v>
-      </c>
-      <c r="F19" t="s">
-        <v>222</v>
-      </c>
-      <c r="G19" t="s">
-        <v>223</v>
-      </c>
-      <c r="H19" t="s">
-        <v>214</v>
-      </c>
-      <c r="I19" t="s">
-        <v>224</v>
+      <c r="E19" s="7">
+        <v>25000</v>
+      </c>
+      <c r="F19" s="7">
+        <v>26000</v>
+      </c>
+      <c r="G19" s="7">
+        <v>29000</v>
+      </c>
+      <c r="H19" s="7">
+        <v>56000</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2113,20 +1968,20 @@
       <c r="D20" t="s">
         <v>113</v>
       </c>
-      <c r="E20">
-        <v>14000</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="4">
         <v>15000</v>
       </c>
-      <c r="G20">
-        <v>17000</v>
-      </c>
-      <c r="H20">
-        <v>26000</v>
-      </c>
-      <c r="I20">
-        <v>29000</v>
+      <c r="F20" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G20" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H20" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I20" s="4">
+        <v>33000</v>
       </c>
       <c r="J20" t="s">
         <v>114</v>
@@ -2148,20 +2003,20 @@
       <c r="D21" t="s">
         <v>58</v>
       </c>
-      <c r="E21">
-        <v>42000</v>
-      </c>
-      <c r="F21">
-        <v>44500</v>
-      </c>
-      <c r="G21">
-        <v>49500</v>
-      </c>
-      <c r="H21">
-        <v>72000</v>
-      </c>
-      <c r="I21">
-        <v>79500</v>
+      <c r="E21" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F21" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G21" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H21" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I21" s="4">
+        <v>90000</v>
       </c>
       <c r="J21" t="s">
         <v>59</v>
@@ -2172,7 +2027,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2186,7 +2041,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2211,20 +2066,20 @@
       <c r="D24" t="s">
         <v>58</v>
       </c>
-      <c r="E24">
-        <v>42000</v>
-      </c>
-      <c r="F24">
-        <v>44500</v>
-      </c>
-      <c r="G24">
-        <v>49500</v>
-      </c>
-      <c r="H24">
-        <v>72000</v>
-      </c>
-      <c r="I24">
-        <v>79500</v>
+      <c r="E24" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F24" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G24" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H24" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I24" s="4">
+        <v>90000</v>
       </c>
       <c r="J24" t="s">
         <v>59</v>
@@ -2246,20 +2101,20 @@
       <c r="D25" t="s">
         <v>113</v>
       </c>
-      <c r="E25">
-        <v>14000</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="4">
         <v>15000</v>
       </c>
-      <c r="G25">
-        <v>17000</v>
-      </c>
-      <c r="H25">
-        <v>26000</v>
-      </c>
-      <c r="I25">
-        <v>29000</v>
+      <c r="F25" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G25" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H25" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I25" s="4">
+        <v>33000</v>
       </c>
       <c r="J25" t="s">
         <v>114</v>
@@ -2281,20 +2136,20 @@
       <c r="D26" t="s">
         <v>58</v>
       </c>
-      <c r="E26">
-        <v>42000</v>
-      </c>
-      <c r="F26">
-        <v>44500</v>
-      </c>
-      <c r="G26">
-        <v>49500</v>
-      </c>
-      <c r="H26">
-        <v>72000</v>
-      </c>
-      <c r="I26">
-        <v>79500</v>
+      <c r="E26" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F26" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G26" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H26" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I26" s="4">
+        <v>90000</v>
       </c>
       <c r="J26" t="s">
         <v>59</v>
@@ -2316,20 +2171,20 @@
       <c r="D27" t="s">
         <v>58</v>
       </c>
-      <c r="E27">
-        <v>42000</v>
-      </c>
-      <c r="F27">
-        <v>44500</v>
-      </c>
-      <c r="G27">
-        <v>49500</v>
-      </c>
-      <c r="H27">
-        <v>72000</v>
-      </c>
-      <c r="I27">
-        <v>79500</v>
+      <c r="E27" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F27" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G27" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H27" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I27" s="4">
+        <v>90000</v>
       </c>
       <c r="J27" t="s">
         <v>59</v>
@@ -2351,20 +2206,20 @@
       <c r="D28" t="s">
         <v>58</v>
       </c>
-      <c r="E28">
-        <v>42000</v>
-      </c>
-      <c r="F28">
-        <v>44500</v>
-      </c>
-      <c r="G28">
-        <v>49500</v>
-      </c>
-      <c r="H28">
-        <v>72000</v>
-      </c>
-      <c r="I28">
-        <v>79500</v>
+      <c r="E28" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F28" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G28" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H28" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I28" s="4">
+        <v>90000</v>
       </c>
       <c r="J28" t="s">
         <v>59</v>
@@ -2386,20 +2241,20 @@
       <c r="D29" t="s">
         <v>113</v>
       </c>
-      <c r="E29">
-        <v>14000</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="4">
         <v>15000</v>
       </c>
-      <c r="G29">
-        <v>17000</v>
-      </c>
-      <c r="H29">
-        <v>26000</v>
-      </c>
-      <c r="I29">
-        <v>29000</v>
+      <c r="F29" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G29" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H29" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I29" s="4">
+        <v>33000</v>
       </c>
       <c r="J29" t="s">
         <v>114</v>
@@ -2421,20 +2276,20 @@
       <c r="D30" t="s">
         <v>58</v>
       </c>
-      <c r="E30">
-        <v>42000</v>
-      </c>
-      <c r="F30">
-        <v>44500</v>
-      </c>
-      <c r="G30">
-        <v>49500</v>
-      </c>
-      <c r="H30">
-        <v>72000</v>
-      </c>
-      <c r="I30">
-        <v>79500</v>
+      <c r="E30" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F30" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G30" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H30" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I30" s="4">
+        <v>90000</v>
       </c>
       <c r="J30" t="s">
         <v>59</v>
@@ -2456,20 +2311,20 @@
       <c r="D31" t="s">
         <v>113</v>
       </c>
-      <c r="E31">
-        <v>14000</v>
-      </c>
-      <c r="F31">
+      <c r="E31" s="4">
         <v>15000</v>
       </c>
-      <c r="G31">
-        <v>17000</v>
-      </c>
-      <c r="H31">
-        <v>26000</v>
-      </c>
-      <c r="I31">
-        <v>29000</v>
+      <c r="F31" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G31" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H31" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I31" s="4">
+        <v>33000</v>
       </c>
       <c r="J31" t="s">
         <v>114</v>
@@ -2491,20 +2346,20 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E32">
-        <v>17000</v>
-      </c>
-      <c r="F32">
-        <v>19000</v>
-      </c>
-      <c r="G32">
-        <v>23000</v>
-      </c>
-      <c r="H32">
-        <v>33000</v>
-      </c>
-      <c r="I32">
-        <v>37000</v>
+      <c r="E32" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F32" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G32" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H32" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I32" s="4">
+        <v>42000</v>
       </c>
       <c r="J32" t="s">
         <v>7</v>
@@ -2526,20 +2381,20 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33">
-        <v>17000</v>
-      </c>
-      <c r="F33">
-        <v>19000</v>
-      </c>
-      <c r="G33">
-        <v>23000</v>
-      </c>
-      <c r="H33">
-        <v>33000</v>
-      </c>
-      <c r="I33">
-        <v>37000</v>
+      <c r="E33" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F33" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G33" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H33" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I33" s="4">
+        <v>42000</v>
       </c>
       <c r="J33" t="s">
         <v>7</v>
@@ -2561,20 +2416,20 @@
       <c r="D34" t="s">
         <v>58</v>
       </c>
-      <c r="E34">
-        <v>42000</v>
-      </c>
-      <c r="F34">
-        <v>44500</v>
-      </c>
-      <c r="G34">
-        <v>49500</v>
-      </c>
-      <c r="H34">
-        <v>72000</v>
-      </c>
-      <c r="I34">
-        <v>79500</v>
+      <c r="E34" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F34" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G34" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H34" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I34" s="4">
+        <v>90000</v>
       </c>
       <c r="J34" t="s">
         <v>59</v>
@@ -2596,20 +2451,20 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35">
-        <v>17000</v>
-      </c>
-      <c r="F35">
-        <v>19000</v>
-      </c>
-      <c r="G35">
-        <v>23000</v>
-      </c>
-      <c r="H35">
-        <v>33000</v>
-      </c>
-      <c r="I35">
-        <v>37000</v>
+      <c r="E35" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F35" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G35" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H35" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I35" s="4">
+        <v>42000</v>
       </c>
       <c r="J35" t="s">
         <v>7</v>
@@ -2631,20 +2486,20 @@
       <c r="D36" t="s">
         <v>58</v>
       </c>
-      <c r="E36">
-        <v>42000</v>
-      </c>
-      <c r="F36">
-        <v>44500</v>
-      </c>
-      <c r="G36">
-        <v>49500</v>
-      </c>
-      <c r="H36">
-        <v>72000</v>
-      </c>
-      <c r="I36">
-        <v>79500</v>
+      <c r="E36" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F36" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G36" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H36" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I36" s="4">
+        <v>90000</v>
       </c>
       <c r="J36" t="s">
         <v>59</v>
@@ -2655,34 +2510,34 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" t="s">
         <v>171</v>
-      </c>
-      <c r="B37" t="s">
-        <v>172</v>
       </c>
       <c r="C37" t="s">
         <v>51</v>
       </c>
       <c r="D37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" s="4">
+        <v>63000</v>
+      </c>
+      <c r="F37" s="4">
+        <v>67000</v>
+      </c>
+      <c r="G37" s="4">
+        <v>71000</v>
+      </c>
+      <c r="H37" s="4">
+        <v>98000</v>
+      </c>
+      <c r="I37" s="4">
+        <v>108000</v>
+      </c>
+      <c r="J37" t="s">
         <v>173</v>
-      </c>
-      <c r="E37">
-        <v>58000</v>
-      </c>
-      <c r="F37">
-        <v>60500</v>
-      </c>
-      <c r="G37">
-        <v>65500</v>
-      </c>
-      <c r="H37">
-        <v>88000</v>
-      </c>
-      <c r="I37">
-        <v>95500</v>
-      </c>
-      <c r="J37" t="s">
-        <v>174</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2701,20 +2556,20 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38">
-        <v>17000</v>
-      </c>
-      <c r="F38">
-        <v>19000</v>
-      </c>
-      <c r="G38">
-        <v>23000</v>
-      </c>
-      <c r="H38">
-        <v>33000</v>
-      </c>
-      <c r="I38">
-        <v>37000</v>
+      <c r="E38" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F38" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G38" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H38" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I38" s="4">
+        <v>42000</v>
       </c>
       <c r="J38" t="s">
         <v>7</v>
@@ -2736,20 +2591,20 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39">
-        <v>17000</v>
-      </c>
-      <c r="F39">
-        <v>19000</v>
-      </c>
-      <c r="G39">
-        <v>23000</v>
-      </c>
-      <c r="H39">
-        <v>33000</v>
-      </c>
-      <c r="I39">
-        <v>37000</v>
+      <c r="E39" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F39" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G39" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H39" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I39" s="4">
+        <v>42000</v>
       </c>
       <c r="J39" t="s">
         <v>7</v>
@@ -2771,20 +2626,20 @@
       <c r="D40" t="s">
         <v>58</v>
       </c>
-      <c r="E40">
-        <v>42000</v>
-      </c>
-      <c r="F40">
-        <v>44500</v>
-      </c>
-      <c r="G40">
-        <v>49500</v>
-      </c>
-      <c r="H40">
-        <v>72000</v>
-      </c>
-      <c r="I40">
-        <v>79500</v>
+      <c r="E40" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F40" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G40" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H40" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I40" s="4">
+        <v>90000</v>
       </c>
       <c r="J40" t="s">
         <v>59</v>
@@ -2798,31 +2653,31 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" t="s">
         <v>191</v>
       </c>
-      <c r="C41" t="s">
-        <v>192</v>
-      </c>
       <c r="D41" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="5">
+        <v>13000</v>
+      </c>
+      <c r="F41" s="5">
+        <v>15000</v>
+      </c>
+      <c r="G41" s="5">
+        <v>19000</v>
+      </c>
+      <c r="H41" s="5">
+        <v>33000</v>
+      </c>
+      <c r="I41" s="5">
+        <v>37000</v>
+      </c>
+      <c r="J41" t="s">
         <v>187</v>
-      </c>
-      <c r="E41">
-        <v>12000</v>
-      </c>
-      <c r="F41">
-        <v>13000</v>
-      </c>
-      <c r="G41">
-        <v>15000</v>
-      </c>
-      <c r="H41">
-        <v>24000</v>
-      </c>
-      <c r="I41">
-        <v>27000</v>
-      </c>
-      <c r="J41" t="s">
-        <v>188</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -2839,31 +2694,25 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" t="s">
         <v>200</v>
       </c>
-      <c r="C42" t="s">
-        <v>192</v>
-      </c>
-      <c r="D42" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42">
-        <v>30000</v>
-      </c>
-      <c r="F42">
-        <v>32500</v>
-      </c>
-      <c r="G42">
-        <v>37500</v>
-      </c>
-      <c r="H42">
-        <v>60000</v>
-      </c>
-      <c r="I42">
-        <v>67500</v>
-      </c>
-      <c r="J42" t="s">
-        <v>202</v>
+      <c r="E42" s="7">
+        <v>38000</v>
+      </c>
+      <c r="F42" s="7">
+        <v>40500</v>
+      </c>
+      <c r="G42" s="7">
+        <v>48000</v>
+      </c>
+      <c r="H42" s="7">
+        <v>115500</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2874,28 +2723,31 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C43" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" t="s">
-        <v>214</v>
-      </c>
-      <c r="F43" t="s">
-        <v>215</v>
-      </c>
-      <c r="G43" t="s">
-        <v>216</v>
-      </c>
-      <c r="H43" t="s">
-        <v>217</v>
-      </c>
-      <c r="I43" t="s">
-        <v>218</v>
+      <c r="E43" s="5">
+        <v>32500</v>
+      </c>
+      <c r="F43" s="5">
+        <v>37500</v>
+      </c>
+      <c r="G43" s="5">
+        <v>47500</v>
+      </c>
+      <c r="H43" s="5">
+        <v>82500</v>
+      </c>
+      <c r="I43" s="5">
+        <v>92500</v>
+      </c>
+      <c r="J43" t="s">
+        <v>201</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2906,32 +2758,27 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" t="s">
         <v>197</v>
       </c>
-      <c r="C44" t="s">
-        <v>192</v>
-      </c>
-      <c r="D44" t="s">
-        <v>198</v>
-      </c>
-      <c r="E44">
-        <v>21600</v>
-      </c>
-      <c r="F44">
-        <v>23400</v>
-      </c>
-      <c r="G44">
-        <v>27000</v>
-      </c>
-      <c r="H44">
-        <v>43200</v>
-      </c>
-      <c r="I44">
-        <v>48600</v>
-      </c>
-      <c r="J44" t="s">
-        <v>199</v>
-      </c>
+      <c r="E44" s="7">
+        <v>24000</v>
+      </c>
+      <c r="F44" s="7">
+        <v>25800</v>
+      </c>
+      <c r="G44" s="7">
+        <v>31200</v>
+      </c>
+      <c r="H44" s="7">
+        <v>79800</v>
+      </c>
+      <c r="I44" s="6"/>
       <c r="K44">
         <v>0</v>
       </c>
@@ -2941,28 +2788,31 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
-        <v>210</v>
-      </c>
-      <c r="F45" t="s">
-        <v>211</v>
-      </c>
-      <c r="G45" t="s">
-        <v>212</v>
-      </c>
-      <c r="H45" t="s">
-        <v>213</v>
-      </c>
-      <c r="I45" t="s">
-        <v>205</v>
+      <c r="E45" s="5">
+        <v>23400</v>
+      </c>
+      <c r="F45" s="5">
+        <v>27000</v>
+      </c>
+      <c r="G45" s="5">
+        <v>34200</v>
+      </c>
+      <c r="H45" s="5">
+        <v>59400</v>
+      </c>
+      <c r="I45" s="5">
+        <v>66600</v>
+      </c>
+      <c r="J45" t="s">
+        <v>198</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2970,7 +2820,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -2984,34 +2834,34 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" t="s">
         <v>183</v>
       </c>
-      <c r="B47" t="s">
-        <v>184</v>
-      </c>
       <c r="C47" t="s">
         <v>5</v>
       </c>
       <c r="D47" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" s="5">
+        <v>13000</v>
+      </c>
+      <c r="F47" s="5">
+        <v>14000</v>
+      </c>
+      <c r="G47" s="5">
+        <v>16000</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
         <v>181</v>
-      </c>
-      <c r="E47">
-        <v>12000</v>
-      </c>
-      <c r="F47">
-        <v>13000</v>
-      </c>
-      <c r="G47">
-        <v>15000</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47" t="s">
-        <v>182</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3030,20 +2880,20 @@
       <c r="D48" t="s">
         <v>113</v>
       </c>
-      <c r="E48">
-        <v>14000</v>
-      </c>
-      <c r="F48">
+      <c r="E48" s="4">
         <v>15000</v>
       </c>
-      <c r="G48">
-        <v>17000</v>
-      </c>
-      <c r="H48">
-        <v>26000</v>
-      </c>
-      <c r="I48">
-        <v>29000</v>
+      <c r="F48" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G48" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H48" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I48" s="4">
+        <v>33000</v>
       </c>
       <c r="J48" t="s">
         <v>114</v>
@@ -3057,7 +2907,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -3071,7 +2921,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -3085,7 +2935,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -3099,7 +2949,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -3113,7 +2963,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -3127,7 +2977,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>298</v>
+        <v>237</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -3141,7 +2991,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -3155,7 +3005,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -3169,7 +3019,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>301</v>
+        <v>240</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -3194,20 +3044,20 @@
       <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="E58">
-        <v>17000</v>
-      </c>
-      <c r="F58">
-        <v>19000</v>
-      </c>
-      <c r="G58">
-        <v>23000</v>
-      </c>
-      <c r="H58">
-        <v>33000</v>
-      </c>
-      <c r="I58">
-        <v>37000</v>
+      <c r="E58" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F58" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G58" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H58" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I58" s="4">
+        <v>42000</v>
       </c>
       <c r="J58" t="s">
         <v>7</v>
@@ -3229,20 +3079,20 @@
       <c r="D59" t="s">
         <v>113</v>
       </c>
-      <c r="E59">
-        <v>14000</v>
-      </c>
-      <c r="F59">
+      <c r="E59" s="4">
         <v>15000</v>
       </c>
-      <c r="G59">
-        <v>17000</v>
-      </c>
-      <c r="H59">
-        <v>26000</v>
-      </c>
-      <c r="I59">
-        <v>29000</v>
+      <c r="F59" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G59" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H59" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I59" s="4">
+        <v>33000</v>
       </c>
       <c r="J59" t="s">
         <v>114</v>
@@ -3256,7 +3106,7 @@
         <v>167</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3264,20 +3114,20 @@
       <c r="D60" t="s">
         <v>113</v>
       </c>
-      <c r="E60">
-        <v>14000</v>
-      </c>
-      <c r="F60">
+      <c r="E60" s="5">
         <v>15000</v>
       </c>
-      <c r="G60">
-        <v>17000</v>
-      </c>
-      <c r="H60">
-        <v>26000</v>
-      </c>
-      <c r="I60">
-        <v>29000</v>
+      <c r="F60" s="5">
+        <v>16000</v>
+      </c>
+      <c r="G60" s="5">
+        <v>18000</v>
+      </c>
+      <c r="H60" s="5">
+        <v>30000</v>
+      </c>
+      <c r="I60" s="5">
+        <v>33000</v>
       </c>
       <c r="J60" t="s">
         <v>114</v>
@@ -3299,20 +3149,20 @@
       <c r="D61" t="s">
         <v>6</v>
       </c>
-      <c r="E61">
-        <v>17000</v>
-      </c>
-      <c r="F61">
-        <v>19000</v>
-      </c>
-      <c r="G61">
-        <v>23000</v>
-      </c>
-      <c r="H61">
-        <v>33000</v>
-      </c>
-      <c r="I61">
-        <v>37000</v>
+      <c r="E61" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F61" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G61" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H61" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I61" s="4">
+        <v>42000</v>
       </c>
       <c r="J61" t="s">
         <v>7</v>
@@ -3334,20 +3184,20 @@
       <c r="D62" t="s">
         <v>6</v>
       </c>
-      <c r="E62">
-        <v>17000</v>
-      </c>
-      <c r="F62">
-        <v>19000</v>
-      </c>
-      <c r="G62">
-        <v>23000</v>
-      </c>
-      <c r="H62">
-        <v>33000</v>
-      </c>
-      <c r="I62">
-        <v>37000</v>
+      <c r="E62" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F62" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G62" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H62" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I62" s="4">
+        <v>42000</v>
       </c>
       <c r="J62" t="s">
         <v>7</v>
@@ -3361,7 +3211,7 @@
         <v>157</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C63" t="s">
         <v>51</v>
@@ -3369,20 +3219,17 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63" t="s">
-        <v>244</v>
-      </c>
-      <c r="F63" t="s">
-        <v>245</v>
-      </c>
-      <c r="G63" t="s">
-        <v>215</v>
-      </c>
-      <c r="H63" t="s">
-        <v>246</v>
-      </c>
-      <c r="I63" t="s">
-        <v>247</v>
+      <c r="E63" s="7">
+        <v>32000</v>
+      </c>
+      <c r="F63" s="7">
+        <v>34500</v>
+      </c>
+      <c r="G63" s="7">
+        <v>42000</v>
+      </c>
+      <c r="H63" s="7">
+        <v>109500</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -3393,28 +3240,25 @@
         <v>157</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="C64" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
-      <c r="E64" t="s">
-        <v>210</v>
-      </c>
-      <c r="F64" t="s">
-        <v>222</v>
-      </c>
-      <c r="G64" t="s">
-        <v>250</v>
-      </c>
-      <c r="H64" t="s">
-        <v>251</v>
-      </c>
-      <c r="I64" t="s">
-        <v>205</v>
+      <c r="E64" s="7">
+        <v>24000</v>
+      </c>
+      <c r="F64" s="7">
+        <v>26000</v>
+      </c>
+      <c r="G64" s="7">
+        <v>31000</v>
+      </c>
+      <c r="H64" s="7">
+        <v>80000</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -3425,28 +3269,25 @@
         <v>157</v>
       </c>
       <c r="B65" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="C65" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65" t="s">
-        <v>222</v>
-      </c>
-      <c r="F65" t="s">
-        <v>223</v>
-      </c>
-      <c r="G65" t="s">
-        <v>253</v>
-      </c>
-      <c r="H65" t="s">
-        <v>254</v>
-      </c>
-      <c r="I65" t="s">
-        <v>255</v>
+      <c r="E65" s="7">
+        <v>26000</v>
+      </c>
+      <c r="F65" s="7">
+        <v>28000</v>
+      </c>
+      <c r="G65" s="7">
+        <v>33000</v>
+      </c>
+      <c r="H65" s="7">
+        <v>82000</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3454,34 +3295,34 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" t="s">
         <v>175</v>
-      </c>
-      <c r="B66" t="s">
-        <v>176</v>
       </c>
       <c r="C66" t="s">
         <v>51</v>
       </c>
       <c r="D66" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" s="4">
+        <v>36000</v>
+      </c>
+      <c r="F66" s="4">
+        <v>40000</v>
+      </c>
+      <c r="G66" s="4">
+        <v>44000</v>
+      </c>
+      <c r="H66" s="4">
+        <v>71000</v>
+      </c>
+      <c r="I66" s="4">
+        <v>81000</v>
+      </c>
+      <c r="J66" t="s">
         <v>177</v>
-      </c>
-      <c r="E66">
-        <v>33000</v>
-      </c>
-      <c r="F66">
-        <v>35500</v>
-      </c>
-      <c r="G66">
-        <v>40500</v>
-      </c>
-      <c r="H66">
-        <v>63000</v>
-      </c>
-      <c r="I66">
-        <v>70500</v>
-      </c>
-      <c r="J66" t="s">
-        <v>178</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -3489,7 +3330,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>302</v>
+        <v>241</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -3506,7 +3347,7 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C68" t="s">
         <v>51</v>
@@ -3514,20 +3355,17 @@
       <c r="D68">
         <v>0</v>
       </c>
-      <c r="E68" t="s">
-        <v>226</v>
-      </c>
-      <c r="F68" t="s">
-        <v>206</v>
-      </c>
-      <c r="G68" t="s">
-        <v>227</v>
-      </c>
-      <c r="H68" t="s">
-        <v>228</v>
-      </c>
-      <c r="I68" t="s">
-        <v>229</v>
+      <c r="E68" s="7">
+        <v>57000</v>
+      </c>
+      <c r="F68" s="7">
+        <v>62000</v>
+      </c>
+      <c r="G68" s="7">
+        <v>76000</v>
+      </c>
+      <c r="H68" s="7">
+        <v>198000</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -3546,20 +3384,20 @@
       <c r="D69" t="s">
         <v>6</v>
       </c>
-      <c r="E69">
-        <v>17000</v>
-      </c>
-      <c r="F69">
-        <v>19000</v>
-      </c>
-      <c r="G69">
-        <v>23000</v>
-      </c>
-      <c r="H69">
-        <v>33000</v>
-      </c>
-      <c r="I69">
-        <v>37000</v>
+      <c r="E69" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F69" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G69" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H69" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I69" s="4">
+        <v>42000</v>
       </c>
       <c r="J69" t="s">
         <v>7</v>
@@ -3581,20 +3419,20 @@
       <c r="D70" t="s">
         <v>6</v>
       </c>
-      <c r="E70">
-        <v>17000</v>
-      </c>
-      <c r="F70">
-        <v>19000</v>
-      </c>
-      <c r="G70">
-        <v>23000</v>
-      </c>
-      <c r="H70">
-        <v>33000</v>
-      </c>
-      <c r="I70">
-        <v>37000</v>
+      <c r="E70" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F70" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G70" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H70" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I70" s="4">
+        <v>42000</v>
       </c>
       <c r="J70" t="s">
         <v>7</v>
@@ -3608,31 +3446,31 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" t="s">
         <v>179</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>180</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" s="4">
+        <v>13000</v>
+      </c>
+      <c r="F71" s="4">
+        <v>14000</v>
+      </c>
+      <c r="G71" s="4">
+        <v>16000</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
         <v>181</v>
-      </c>
-      <c r="E71">
-        <v>12000</v>
-      </c>
-      <c r="F71">
-        <v>13000</v>
-      </c>
-      <c r="G71">
-        <v>15000</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71" t="s">
-        <v>182</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3643,28 +3481,25 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C72" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
-      <c r="E72" t="s">
-        <v>232</v>
-      </c>
-      <c r="F72" t="s">
-        <v>233</v>
-      </c>
-      <c r="G72" t="s">
-        <v>234</v>
-      </c>
-      <c r="H72" t="s">
-        <v>235</v>
-      </c>
-      <c r="I72" t="s">
-        <v>236</v>
+      <c r="E72" s="7">
+        <v>37000</v>
+      </c>
+      <c r="F72" s="7">
+        <v>39500</v>
+      </c>
+      <c r="G72" s="7">
+        <v>47000</v>
+      </c>
+      <c r="H72" s="7">
+        <v>114500</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3675,28 +3510,25 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="C73" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
-      <c r="E73" t="s">
-        <v>238</v>
-      </c>
-      <c r="F73" t="s">
-        <v>239</v>
-      </c>
-      <c r="G73" t="s">
-        <v>240</v>
-      </c>
-      <c r="H73" t="s">
-        <v>241</v>
-      </c>
-      <c r="I73" t="s">
-        <v>242</v>
+      <c r="E73" s="7">
+        <v>73000</v>
+      </c>
+      <c r="F73" s="7">
+        <v>78000</v>
+      </c>
+      <c r="G73" s="7">
+        <v>93000</v>
+      </c>
+      <c r="H73" s="7">
+        <v>228000</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3704,7 +3536,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -3718,7 +3550,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>304</v>
+        <v>243</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -3732,7 +3564,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -3746,7 +3578,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -3760,7 +3592,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>307</v>
+        <v>246</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -3774,7 +3606,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -3788,7 +3620,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -3813,20 +3645,20 @@
       <c r="D81" t="s">
         <v>113</v>
       </c>
-      <c r="E81">
-        <v>14000</v>
-      </c>
-      <c r="F81">
+      <c r="E81" s="4">
         <v>15000</v>
       </c>
-      <c r="G81">
-        <v>17000</v>
-      </c>
-      <c r="H81">
-        <v>26000</v>
-      </c>
-      <c r="I81">
-        <v>29000</v>
+      <c r="F81" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G81" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H81" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I81" s="4">
+        <v>33000</v>
       </c>
       <c r="J81" t="s">
         <v>114</v>
@@ -3848,20 +3680,20 @@
       <c r="D82" t="s">
         <v>106</v>
       </c>
-      <c r="E82">
-        <v>30000</v>
-      </c>
-      <c r="F82">
-        <v>32500</v>
-      </c>
-      <c r="G82">
-        <v>37500</v>
-      </c>
-      <c r="H82">
-        <v>60000</v>
-      </c>
-      <c r="I82">
-        <v>67500</v>
+      <c r="E82" s="4">
+        <v>32000</v>
+      </c>
+      <c r="F82" s="4">
+        <v>36000</v>
+      </c>
+      <c r="G82" s="4">
+        <v>40000</v>
+      </c>
+      <c r="H82" s="4">
+        <v>67000</v>
+      </c>
+      <c r="I82" s="4">
+        <v>77000</v>
       </c>
       <c r="J82" t="s">
         <v>107</v>
@@ -3883,20 +3715,20 @@
       <c r="D83" t="s">
         <v>58</v>
       </c>
-      <c r="E83">
-        <v>42000</v>
-      </c>
-      <c r="F83">
-        <v>44500</v>
-      </c>
-      <c r="G83">
-        <v>49500</v>
-      </c>
-      <c r="H83">
-        <v>72000</v>
-      </c>
-      <c r="I83">
-        <v>79500</v>
+      <c r="E83" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F83" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G83" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H83" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I83" s="4">
+        <v>90000</v>
       </c>
       <c r="J83" t="s">
         <v>59</v>
@@ -3910,7 +3742,7 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="C84" t="s">
         <v>51</v>
@@ -3918,20 +3750,17 @@
       <c r="D84">
         <v>0</v>
       </c>
-      <c r="E84" t="s">
-        <v>257</v>
-      </c>
-      <c r="F84" t="s">
-        <v>258</v>
-      </c>
-      <c r="G84" t="s">
-        <v>259</v>
-      </c>
-      <c r="H84" t="s">
-        <v>241</v>
-      </c>
-      <c r="I84" t="s">
-        <v>260</v>
+      <c r="E84" s="7">
+        <v>80000</v>
+      </c>
+      <c r="F84" s="7">
+        <v>85000</v>
+      </c>
+      <c r="G84" s="7">
+        <v>99000</v>
+      </c>
+      <c r="H84" s="7">
+        <v>221000</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -3950,20 +3779,20 @@
       <c r="D85" t="s">
         <v>58</v>
       </c>
-      <c r="E85">
-        <v>42000</v>
-      </c>
-      <c r="F85">
-        <v>44500</v>
-      </c>
-      <c r="G85">
-        <v>49500</v>
-      </c>
-      <c r="H85">
-        <v>72000</v>
-      </c>
-      <c r="I85">
-        <v>79500</v>
+      <c r="E85" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F85" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G85" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H85" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I85" s="4">
+        <v>90000</v>
       </c>
       <c r="J85" t="s">
         <v>59</v>
@@ -3985,20 +3814,20 @@
       <c r="D86" t="s">
         <v>58</v>
       </c>
-      <c r="E86">
-        <v>42000</v>
-      </c>
-      <c r="F86">
-        <v>44500</v>
-      </c>
-      <c r="G86">
-        <v>49500</v>
-      </c>
-      <c r="H86">
-        <v>72000</v>
-      </c>
-      <c r="I86">
-        <v>79500</v>
+      <c r="E86" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F86" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G86" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H86" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I86" s="4">
+        <v>90000</v>
       </c>
       <c r="J86" t="s">
         <v>59</v>
@@ -4020,20 +3849,20 @@
       <c r="D87" t="s">
         <v>58</v>
       </c>
-      <c r="E87">
-        <v>42000</v>
-      </c>
-      <c r="F87">
-        <v>44500</v>
-      </c>
-      <c r="G87">
-        <v>49500</v>
-      </c>
-      <c r="H87">
-        <v>72000</v>
-      </c>
-      <c r="I87">
-        <v>79500</v>
+      <c r="E87" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F87" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G87" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H87" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I87" s="4">
+        <v>90000</v>
       </c>
       <c r="J87" t="s">
         <v>59</v>
@@ -4055,20 +3884,20 @@
       <c r="D88" t="s">
         <v>113</v>
       </c>
-      <c r="E88">
-        <v>14000</v>
-      </c>
-      <c r="F88">
+      <c r="E88" s="4">
         <v>15000</v>
       </c>
-      <c r="G88">
-        <v>17000</v>
-      </c>
-      <c r="H88">
-        <v>26000</v>
-      </c>
-      <c r="I88">
-        <v>29000</v>
+      <c r="F88" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G88" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H88" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I88" s="4">
+        <v>33000</v>
       </c>
       <c r="J88" t="s">
         <v>114</v>
@@ -4090,20 +3919,20 @@
       <c r="D89" t="s">
         <v>113</v>
       </c>
-      <c r="E89">
-        <v>14000</v>
-      </c>
-      <c r="F89">
+      <c r="E89" s="4">
         <v>15000</v>
       </c>
-      <c r="G89">
-        <v>17000</v>
-      </c>
-      <c r="H89">
-        <v>26000</v>
-      </c>
-      <c r="I89">
-        <v>29000</v>
+      <c r="F89" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G89" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H89" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I89" s="4">
+        <v>33000</v>
       </c>
       <c r="J89" t="s">
         <v>114</v>
@@ -4125,20 +3954,20 @@
       <c r="D90" t="s">
         <v>6</v>
       </c>
-      <c r="E90">
-        <v>17000</v>
-      </c>
-      <c r="F90">
-        <v>19000</v>
-      </c>
-      <c r="G90">
-        <v>23000</v>
-      </c>
-      <c r="H90">
-        <v>33000</v>
-      </c>
-      <c r="I90">
-        <v>37000</v>
+      <c r="E90" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F90" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G90" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H90" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I90" s="4">
+        <v>42000</v>
       </c>
       <c r="J90" t="s">
         <v>7</v>
@@ -4149,34 +3978,34 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" t="s">
         <v>185</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
         <v>186</v>
       </c>
-      <c r="C91" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" s="4">
+        <v>13000</v>
+      </c>
+      <c r="F91" s="4">
+        <v>15000</v>
+      </c>
+      <c r="G91" s="4">
+        <v>19000</v>
+      </c>
+      <c r="H91" s="4">
+        <v>33000</v>
+      </c>
+      <c r="I91" s="4">
+        <v>37000</v>
+      </c>
+      <c r="J91" t="s">
         <v>187</v>
-      </c>
-      <c r="E91">
-        <v>12000</v>
-      </c>
-      <c r="F91">
-        <v>13000</v>
-      </c>
-      <c r="G91">
-        <v>15000</v>
-      </c>
-      <c r="H91">
-        <v>24000</v>
-      </c>
-      <c r="I91">
-        <v>27000</v>
-      </c>
-      <c r="J91" t="s">
-        <v>188</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -4184,34 +4013,34 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" t="s">
         <v>189</v>
       </c>
-      <c r="C92" t="s">
-        <v>190</v>
-      </c>
       <c r="D92" t="s">
+        <v>186</v>
+      </c>
+      <c r="E92" s="4">
+        <v>13000</v>
+      </c>
+      <c r="F92" s="4">
+        <v>15000</v>
+      </c>
+      <c r="G92" s="4">
+        <v>19000</v>
+      </c>
+      <c r="H92" s="4">
+        <v>33000</v>
+      </c>
+      <c r="I92" s="4">
+        <v>37000</v>
+      </c>
+      <c r="J92" t="s">
         <v>187</v>
-      </c>
-      <c r="E92">
-        <v>12000</v>
-      </c>
-      <c r="F92">
-        <v>13000</v>
-      </c>
-      <c r="G92">
-        <v>15000</v>
-      </c>
-      <c r="H92">
-        <v>24000</v>
-      </c>
-      <c r="I92">
-        <v>27000</v>
-      </c>
-      <c r="J92" t="s">
-        <v>188</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -4230,20 +4059,20 @@
       <c r="D93" t="s">
         <v>6</v>
       </c>
-      <c r="E93">
-        <v>17000</v>
-      </c>
-      <c r="F93">
-        <v>19000</v>
-      </c>
-      <c r="G93">
-        <v>23000</v>
-      </c>
-      <c r="H93">
-        <v>33000</v>
-      </c>
-      <c r="I93">
-        <v>37000</v>
+      <c r="E93" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F93" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G93" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H93" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I93" s="4">
+        <v>42000</v>
       </c>
       <c r="J93" t="s">
         <v>7</v>
@@ -4265,20 +4094,20 @@
       <c r="D94" t="s">
         <v>58</v>
       </c>
-      <c r="E94">
-        <v>42000</v>
-      </c>
-      <c r="F94">
-        <v>44500</v>
-      </c>
-      <c r="G94">
-        <v>49500</v>
-      </c>
-      <c r="H94">
-        <v>72000</v>
-      </c>
-      <c r="I94">
-        <v>79500</v>
+      <c r="E94" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F94" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G94" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H94" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I94" s="4">
+        <v>90000</v>
       </c>
       <c r="J94" t="s">
         <v>59</v>
@@ -4300,20 +4129,20 @@
       <c r="D95" t="s">
         <v>6</v>
       </c>
-      <c r="E95">
-        <v>17000</v>
-      </c>
-      <c r="F95">
-        <v>19000</v>
-      </c>
-      <c r="G95">
-        <v>23000</v>
-      </c>
-      <c r="H95">
-        <v>33000</v>
-      </c>
-      <c r="I95">
-        <v>37000</v>
+      <c r="E95" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F95" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G95" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H95" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I95" s="4">
+        <v>42000</v>
       </c>
       <c r="J95" t="s">
         <v>7</v>
@@ -4335,20 +4164,20 @@
       <c r="D96" t="s">
         <v>113</v>
       </c>
-      <c r="E96">
-        <v>14000</v>
-      </c>
-      <c r="F96">
+      <c r="E96" s="4">
         <v>15000</v>
       </c>
-      <c r="G96">
-        <v>17000</v>
-      </c>
-      <c r="H96">
-        <v>26000</v>
-      </c>
-      <c r="I96">
-        <v>29000</v>
+      <c r="F96" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G96" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H96" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I96" s="4">
+        <v>33000</v>
       </c>
       <c r="J96" t="s">
         <v>114</v>
@@ -4359,7 +4188,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -4370,7 +4199,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -4395,20 +4224,20 @@
       <c r="D99" t="s">
         <v>113</v>
       </c>
-      <c r="E99">
-        <v>14000</v>
-      </c>
-      <c r="F99">
+      <c r="E99" s="4">
         <v>15000</v>
       </c>
-      <c r="G99">
-        <v>17000</v>
-      </c>
-      <c r="H99">
-        <v>26000</v>
-      </c>
-      <c r="I99">
-        <v>29000</v>
+      <c r="F99" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G99" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H99" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I99" s="4">
+        <v>33000</v>
       </c>
       <c r="J99" t="s">
         <v>114</v>
@@ -4430,20 +4259,20 @@
       <c r="D100" t="s">
         <v>113</v>
       </c>
-      <c r="E100">
-        <v>14000</v>
-      </c>
-      <c r="F100">
+      <c r="E100" s="4">
         <v>15000</v>
       </c>
-      <c r="G100">
-        <v>17000</v>
-      </c>
-      <c r="H100">
-        <v>26000</v>
-      </c>
-      <c r="I100">
-        <v>29000</v>
+      <c r="F100" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G100" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H100" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I100" s="4">
+        <v>33000</v>
       </c>
       <c r="J100" t="s">
         <v>114</v>
@@ -4465,20 +4294,20 @@
       <c r="D101" t="s">
         <v>6</v>
       </c>
-      <c r="E101">
-        <v>17000</v>
-      </c>
-      <c r="F101">
-        <v>19000</v>
-      </c>
-      <c r="G101">
-        <v>23000</v>
-      </c>
-      <c r="H101">
-        <v>33000</v>
-      </c>
-      <c r="I101">
-        <v>37000</v>
+      <c r="E101" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F101" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G101" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H101" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I101" s="4">
+        <v>42000</v>
       </c>
       <c r="J101" t="s">
         <v>7</v>
@@ -4500,20 +4329,20 @@
       <c r="D102" t="s">
         <v>113</v>
       </c>
-      <c r="E102">
-        <v>14000</v>
-      </c>
-      <c r="F102">
+      <c r="E102" s="4">
         <v>15000</v>
       </c>
-      <c r="G102">
-        <v>17000</v>
-      </c>
-      <c r="H102">
-        <v>26000</v>
-      </c>
-      <c r="I102">
-        <v>29000</v>
+      <c r="F102" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G102" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H102" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I102" s="4">
+        <v>33000</v>
       </c>
       <c r="J102" t="s">
         <v>114</v>
@@ -4527,28 +4356,25 @@
         <v>31</v>
       </c>
       <c r="B103" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="C103" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
-      <c r="E103" t="s">
-        <v>210</v>
-      </c>
-      <c r="F103" t="s">
-        <v>222</v>
-      </c>
-      <c r="G103" t="s">
-        <v>250</v>
-      </c>
-      <c r="H103" t="s">
-        <v>251</v>
-      </c>
-      <c r="I103" t="s">
-        <v>205</v>
+      <c r="E103" s="7">
+        <v>24000</v>
+      </c>
+      <c r="F103" s="7">
+        <v>26000</v>
+      </c>
+      <c r="G103" s="7">
+        <v>31000</v>
+      </c>
+      <c r="H103" s="7">
+        <v>80000</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -4559,28 +4385,25 @@
         <v>31</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="C104" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
-      <c r="E104" t="s">
-        <v>222</v>
-      </c>
-      <c r="F104" t="s">
-        <v>223</v>
-      </c>
-      <c r="G104" t="s">
-        <v>253</v>
-      </c>
-      <c r="H104" t="s">
-        <v>254</v>
-      </c>
-      <c r="I104" t="s">
-        <v>255</v>
+      <c r="E104" s="7">
+        <v>26000</v>
+      </c>
+      <c r="F104" s="7">
+        <v>28000</v>
+      </c>
+      <c r="G104" s="7">
+        <v>33000</v>
+      </c>
+      <c r="H104" s="7">
+        <v>82000</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -4591,7 +4414,7 @@
         <v>140</v>
       </c>
       <c r="B105" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4599,20 +4422,17 @@
       <c r="D105">
         <v>0</v>
       </c>
-      <c r="E105" t="s">
-        <v>223</v>
-      </c>
-      <c r="F105" t="s">
-        <v>250</v>
-      </c>
-      <c r="G105" t="s">
-        <v>264</v>
-      </c>
-      <c r="H105" t="s">
-        <v>265</v>
-      </c>
-      <c r="I105" t="s">
-        <v>226</v>
+      <c r="E105" s="7">
+        <v>28000</v>
+      </c>
+      <c r="F105" s="7">
+        <v>29000</v>
+      </c>
+      <c r="G105" s="7">
+        <v>34000</v>
+      </c>
+      <c r="H105" s="7">
+        <v>82000</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -4623,7 +4443,7 @@
         <v>140</v>
       </c>
       <c r="B106" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4631,20 +4451,17 @@
       <c r="D106">
         <v>0</v>
       </c>
-      <c r="E106" t="s">
-        <v>253</v>
-      </c>
-      <c r="F106" t="s">
-        <v>244</v>
-      </c>
-      <c r="G106" t="s">
-        <v>232</v>
-      </c>
-      <c r="H106" t="s">
-        <v>267</v>
-      </c>
-      <c r="I106" t="s">
-        <v>268</v>
+      <c r="E106" s="7">
+        <v>31000</v>
+      </c>
+      <c r="F106" s="7">
+        <v>32000</v>
+      </c>
+      <c r="G106" s="7">
+        <v>37000</v>
+      </c>
+      <c r="H106" s="7">
+        <v>85000</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -4655,7 +4472,7 @@
         <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>269</v>
+        <v>217</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -4663,20 +4480,17 @@
       <c r="D107">
         <v>0</v>
       </c>
-      <c r="E107" t="s">
-        <v>264</v>
-      </c>
-      <c r="F107" t="s">
-        <v>270</v>
-      </c>
-      <c r="G107" t="s">
-        <v>271</v>
-      </c>
-      <c r="H107" t="s">
-        <v>272</v>
-      </c>
-      <c r="I107" t="s">
-        <v>206</v>
+      <c r="E107" s="7">
+        <v>33000</v>
+      </c>
+      <c r="F107" s="7">
+        <v>34000</v>
+      </c>
+      <c r="G107" s="7">
+        <v>39000</v>
+      </c>
+      <c r="H107" s="7">
+        <v>87000</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -4695,20 +4509,20 @@
       <c r="D108" t="s">
         <v>6</v>
       </c>
-      <c r="E108">
-        <v>17000</v>
-      </c>
-      <c r="F108">
-        <v>19000</v>
-      </c>
-      <c r="G108">
-        <v>23000</v>
-      </c>
-      <c r="H108">
-        <v>33000</v>
-      </c>
-      <c r="I108">
-        <v>37000</v>
+      <c r="E108" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F108" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G108" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H108" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I108" s="4">
+        <v>42000</v>
       </c>
       <c r="J108" t="s">
         <v>7</v>
@@ -4730,20 +4544,20 @@
       <c r="D109" t="s">
         <v>58</v>
       </c>
-      <c r="E109">
-        <v>42000</v>
-      </c>
-      <c r="F109">
-        <v>44500</v>
-      </c>
-      <c r="G109">
-        <v>49500</v>
-      </c>
-      <c r="H109">
-        <v>72000</v>
-      </c>
-      <c r="I109">
-        <v>79500</v>
+      <c r="E109" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F109" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G109" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H109" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I109" s="4">
+        <v>90000</v>
       </c>
       <c r="J109" t="s">
         <v>59</v>
@@ -4765,20 +4579,20 @@
       <c r="D110" t="s">
         <v>6</v>
       </c>
-      <c r="E110">
-        <v>17000</v>
-      </c>
-      <c r="F110">
-        <v>19000</v>
-      </c>
-      <c r="G110">
-        <v>23000</v>
-      </c>
-      <c r="H110">
-        <v>33000</v>
-      </c>
-      <c r="I110">
-        <v>37000</v>
+      <c r="E110" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F110" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G110" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H110" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I110" s="4">
+        <v>42000</v>
       </c>
       <c r="J110" t="s">
         <v>7</v>
@@ -4800,20 +4614,20 @@
       <c r="D111" t="s">
         <v>6</v>
       </c>
-      <c r="E111">
-        <v>17000</v>
-      </c>
-      <c r="F111">
-        <v>19000</v>
-      </c>
-      <c r="G111">
-        <v>23000</v>
-      </c>
-      <c r="H111">
-        <v>33000</v>
-      </c>
-      <c r="I111">
-        <v>37000</v>
+      <c r="E111" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F111" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G111" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H111" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I111" s="4">
+        <v>42000</v>
       </c>
       <c r="J111" t="s">
         <v>7</v>
@@ -4835,20 +4649,20 @@
       <c r="D112" t="s">
         <v>58</v>
       </c>
-      <c r="E112">
-        <v>42000</v>
-      </c>
-      <c r="F112">
-        <v>44500</v>
-      </c>
-      <c r="G112">
-        <v>49500</v>
-      </c>
-      <c r="H112">
-        <v>72000</v>
-      </c>
-      <c r="I112">
-        <v>79500</v>
+      <c r="E112" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F112" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G112" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H112" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I112" s="4">
+        <v>90000</v>
       </c>
       <c r="J112" t="s">
         <v>59</v>
@@ -4870,20 +4684,20 @@
       <c r="D113" t="s">
         <v>113</v>
       </c>
-      <c r="E113">
-        <v>14000</v>
-      </c>
-      <c r="F113">
+      <c r="E113" s="4">
         <v>15000</v>
       </c>
-      <c r="G113">
-        <v>17000</v>
-      </c>
-      <c r="H113">
-        <v>26000</v>
-      </c>
-      <c r="I113">
-        <v>29000</v>
+      <c r="F113" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G113" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H113" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I113" s="4">
+        <v>33000</v>
       </c>
       <c r="J113" t="s">
         <v>114</v>
@@ -4905,20 +4719,20 @@
       <c r="D114" t="s">
         <v>113</v>
       </c>
-      <c r="E114">
-        <v>14000</v>
-      </c>
-      <c r="F114">
+      <c r="E114" s="4">
         <v>15000</v>
       </c>
-      <c r="G114">
-        <v>17000</v>
-      </c>
-      <c r="H114">
-        <v>26000</v>
-      </c>
-      <c r="I114">
-        <v>29000</v>
+      <c r="F114" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G114" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H114" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I114" s="4">
+        <v>33000</v>
       </c>
       <c r="J114" t="s">
         <v>114</v>
@@ -4940,20 +4754,20 @@
       <c r="D115" t="s">
         <v>113</v>
       </c>
-      <c r="E115">
-        <v>14000</v>
-      </c>
-      <c r="F115">
+      <c r="E115" s="4">
         <v>15000</v>
       </c>
-      <c r="G115">
-        <v>17000</v>
-      </c>
-      <c r="H115">
-        <v>26000</v>
-      </c>
-      <c r="I115">
-        <v>29000</v>
+      <c r="F115" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G115" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H115" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I115" s="4">
+        <v>33000</v>
       </c>
       <c r="J115" t="s">
         <v>114</v>
@@ -4964,10 +4778,10 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" t="s">
         <v>169</v>
-      </c>
-      <c r="B116" t="s">
-        <v>170</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4975,20 +4789,20 @@
       <c r="D116" t="s">
         <v>113</v>
       </c>
-      <c r="E116">
-        <v>14000</v>
-      </c>
-      <c r="F116">
+      <c r="E116" s="4">
         <v>15000</v>
       </c>
-      <c r="G116">
-        <v>17000</v>
-      </c>
-      <c r="H116">
-        <v>26000</v>
-      </c>
-      <c r="I116">
-        <v>29000</v>
+      <c r="F116" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G116" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H116" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I116" s="4">
+        <v>33000</v>
       </c>
       <c r="J116" t="s">
         <v>114</v>
@@ -4999,10 +4813,10 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B117" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -5010,20 +4824,17 @@
       <c r="D117">
         <v>0</v>
       </c>
-      <c r="E117" t="s">
-        <v>232</v>
-      </c>
-      <c r="F117" t="s">
-        <v>271</v>
-      </c>
-      <c r="G117" t="s">
-        <v>274</v>
-      </c>
-      <c r="H117" t="s">
-        <v>206</v>
-      </c>
-      <c r="I117" t="s">
-        <v>235</v>
+      <c r="E117" s="7">
+        <v>37000</v>
+      </c>
+      <c r="F117" s="7">
+        <v>39000</v>
+      </c>
+      <c r="G117" s="7">
+        <v>45000</v>
+      </c>
+      <c r="H117" s="7">
+        <v>99000</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -5031,10 +4842,10 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B118" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -5042,20 +4853,17 @@
       <c r="D118">
         <v>0</v>
       </c>
-      <c r="E118" t="s">
-        <v>276</v>
-      </c>
-      <c r="F118" t="s">
-        <v>277</v>
-      </c>
-      <c r="G118" t="s">
-        <v>278</v>
-      </c>
-      <c r="H118" t="s">
-        <v>279</v>
-      </c>
-      <c r="I118" t="s">
-        <v>227</v>
+      <c r="E118" s="7">
+        <v>40000</v>
+      </c>
+      <c r="F118" s="7">
+        <v>42000</v>
+      </c>
+      <c r="G118" s="7">
+        <v>48000</v>
+      </c>
+      <c r="H118" s="7">
+        <v>102000</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -5074,20 +4882,20 @@
       <c r="D119" t="s">
         <v>113</v>
       </c>
-      <c r="E119">
-        <v>14000</v>
-      </c>
-      <c r="F119">
+      <c r="E119" s="4">
         <v>15000</v>
       </c>
-      <c r="G119">
-        <v>17000</v>
-      </c>
-      <c r="H119">
-        <v>26000</v>
-      </c>
-      <c r="I119">
-        <v>29000</v>
+      <c r="F119" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G119" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H119" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I119" s="4">
+        <v>33000</v>
       </c>
       <c r="J119" t="s">
         <v>114</v>
@@ -5109,20 +4917,20 @@
       <c r="D120" t="s">
         <v>113</v>
       </c>
-      <c r="E120">
-        <v>14000</v>
-      </c>
-      <c r="F120">
+      <c r="E120" s="4">
         <v>15000</v>
       </c>
-      <c r="G120">
-        <v>17000</v>
-      </c>
-      <c r="H120">
-        <v>26000</v>
-      </c>
-      <c r="I120">
-        <v>29000</v>
+      <c r="F120" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G120" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H120" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I120" s="4">
+        <v>33000</v>
       </c>
       <c r="J120" t="s">
         <v>114</v>
@@ -5144,20 +4952,20 @@
       <c r="D121" t="s">
         <v>113</v>
       </c>
-      <c r="E121">
-        <v>14000</v>
-      </c>
-      <c r="F121">
+      <c r="E121" s="4">
         <v>15000</v>
       </c>
-      <c r="G121">
-        <v>17000</v>
-      </c>
-      <c r="H121">
-        <v>26000</v>
-      </c>
-      <c r="I121">
-        <v>29000</v>
+      <c r="F121" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G121" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H121" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I121" s="4">
+        <v>33000</v>
       </c>
       <c r="J121" t="s">
         <v>114</v>
@@ -5179,20 +4987,20 @@
       <c r="D122" t="s">
         <v>113</v>
       </c>
-      <c r="E122">
-        <v>14000</v>
-      </c>
-      <c r="F122">
+      <c r="E122" s="4">
         <v>15000</v>
       </c>
-      <c r="G122">
-        <v>17000</v>
-      </c>
-      <c r="H122">
-        <v>26000</v>
-      </c>
-      <c r="I122">
-        <v>29000</v>
+      <c r="F122" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G122" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H122" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I122" s="4">
+        <v>33000</v>
       </c>
       <c r="J122" t="s">
         <v>114</v>
@@ -5203,7 +5011,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="K123">
         <v>1</v>
@@ -5217,7 +5025,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="K124">
         <v>1</v>
@@ -5231,34 +5039,34 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>192</v>
+      </c>
+      <c r="B125" t="s">
         <v>193</v>
-      </c>
-      <c r="B125" t="s">
-        <v>194</v>
       </c>
       <c r="C125" t="s">
         <v>51</v>
       </c>
       <c r="D125" t="s">
+        <v>194</v>
+      </c>
+      <c r="E125" s="4">
+        <v>26000</v>
+      </c>
+      <c r="F125" s="4">
+        <v>30000</v>
+      </c>
+      <c r="G125" s="4">
+        <v>34000</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
         <v>195</v>
-      </c>
-      <c r="E125">
-        <v>24000</v>
-      </c>
-      <c r="F125">
-        <v>26500</v>
-      </c>
-      <c r="G125">
-        <v>31500</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125" t="s">
-        <v>196</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -5277,20 +5085,20 @@
       <c r="D126" t="s">
         <v>58</v>
       </c>
-      <c r="E126">
-        <v>42000</v>
-      </c>
-      <c r="F126">
-        <v>44500</v>
-      </c>
-      <c r="G126">
-        <v>49500</v>
-      </c>
-      <c r="H126">
-        <v>72000</v>
-      </c>
-      <c r="I126">
-        <v>79500</v>
+      <c r="E126" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F126" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G126" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H126" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I126" s="4">
+        <v>90000</v>
       </c>
       <c r="J126" t="s">
         <v>59</v>
@@ -5312,20 +5120,20 @@
       <c r="D127" t="s">
         <v>113</v>
       </c>
-      <c r="E127">
-        <v>14000</v>
-      </c>
-      <c r="F127">
+      <c r="E127" s="4">
         <v>15000</v>
       </c>
-      <c r="G127">
-        <v>17000</v>
-      </c>
-      <c r="H127">
-        <v>26000</v>
-      </c>
-      <c r="I127">
-        <v>29000</v>
+      <c r="F127" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G127" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H127" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I127" s="4">
+        <v>33000</v>
       </c>
       <c r="J127" t="s">
         <v>114</v>
@@ -5347,20 +5155,20 @@
       <c r="D128" t="s">
         <v>58</v>
       </c>
-      <c r="E128">
-        <v>42000</v>
-      </c>
-      <c r="F128">
-        <v>44500</v>
-      </c>
-      <c r="G128">
-        <v>49500</v>
-      </c>
-      <c r="H128">
-        <v>72000</v>
-      </c>
-      <c r="I128">
-        <v>79500</v>
+      <c r="E128" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F128" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G128" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H128" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I128" s="4">
+        <v>90000</v>
       </c>
       <c r="J128" t="s">
         <v>59</v>
@@ -5382,20 +5190,20 @@
       <c r="D129" t="s">
         <v>6</v>
       </c>
-      <c r="E129">
-        <v>17000</v>
-      </c>
-      <c r="F129">
-        <v>19000</v>
-      </c>
-      <c r="G129">
-        <v>23000</v>
-      </c>
-      <c r="H129">
-        <v>33000</v>
-      </c>
-      <c r="I129">
-        <v>37000</v>
+      <c r="E129" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F129" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G129" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H129" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I129" s="4">
+        <v>42000</v>
       </c>
       <c r="J129" t="s">
         <v>7</v>
@@ -5417,20 +5225,20 @@
       <c r="D130" t="s">
         <v>6</v>
       </c>
-      <c r="E130">
-        <v>17000</v>
-      </c>
-      <c r="F130">
-        <v>19000</v>
-      </c>
-      <c r="G130">
-        <v>23000</v>
-      </c>
-      <c r="H130">
-        <v>33000</v>
-      </c>
-      <c r="I130">
-        <v>37000</v>
+      <c r="E130" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F130" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G130" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H130" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I130" s="4">
+        <v>42000</v>
       </c>
       <c r="J130" t="s">
         <v>7</v>
@@ -5452,20 +5260,20 @@
       <c r="D131" t="s">
         <v>113</v>
       </c>
-      <c r="E131">
-        <v>14000</v>
-      </c>
-      <c r="F131">
+      <c r="E131" s="4">
         <v>15000</v>
       </c>
-      <c r="G131">
-        <v>17000</v>
-      </c>
-      <c r="H131">
-        <v>26000</v>
-      </c>
-      <c r="I131">
-        <v>29000</v>
+      <c r="F131" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G131" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H131" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I131" s="4">
+        <v>33000</v>
       </c>
       <c r="J131" t="s">
         <v>114</v>
@@ -5487,20 +5295,20 @@
       <c r="D132" t="s">
         <v>58</v>
       </c>
-      <c r="E132">
-        <v>42000</v>
-      </c>
-      <c r="F132">
-        <v>44500</v>
-      </c>
-      <c r="G132">
-        <v>49500</v>
-      </c>
-      <c r="H132">
-        <v>72000</v>
-      </c>
-      <c r="I132">
-        <v>79500</v>
+      <c r="E132" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F132" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G132" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H132" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I132" s="4">
+        <v>90000</v>
       </c>
       <c r="J132" t="s">
         <v>59</v>
@@ -5522,20 +5330,20 @@
       <c r="D133" t="s">
         <v>58</v>
       </c>
-      <c r="E133">
-        <v>42000</v>
-      </c>
-      <c r="F133">
-        <v>44500</v>
-      </c>
-      <c r="G133">
-        <v>49500</v>
-      </c>
-      <c r="H133">
-        <v>72000</v>
-      </c>
-      <c r="I133">
-        <v>79500</v>
+      <c r="E133" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F133" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G133" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H133" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I133" s="4">
+        <v>90000</v>
       </c>
       <c r="J133" t="s">
         <v>59</v>
@@ -5557,20 +5365,20 @@
       <c r="D134" t="s">
         <v>106</v>
       </c>
-      <c r="E134">
-        <v>30000</v>
-      </c>
-      <c r="F134">
-        <v>32500</v>
-      </c>
-      <c r="G134">
-        <v>37500</v>
-      </c>
-      <c r="H134">
-        <v>60000</v>
-      </c>
-      <c r="I134">
-        <v>67500</v>
+      <c r="E134" s="4">
+        <v>32000</v>
+      </c>
+      <c r="F134" s="4">
+        <v>36000</v>
+      </c>
+      <c r="G134" s="4">
+        <v>40000</v>
+      </c>
+      <c r="H134" s="4">
+        <v>67000</v>
+      </c>
+      <c r="I134" s="4">
+        <v>77000</v>
       </c>
       <c r="J134" t="s">
         <v>107</v>
@@ -5592,20 +5400,20 @@
       <c r="D135" t="s">
         <v>113</v>
       </c>
-      <c r="E135">
-        <v>14000</v>
-      </c>
-      <c r="F135">
+      <c r="E135" s="4">
         <v>15000</v>
       </c>
-      <c r="G135">
-        <v>17000</v>
-      </c>
-      <c r="H135">
-        <v>26000</v>
-      </c>
-      <c r="I135">
-        <v>29000</v>
+      <c r="F135" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G135" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H135" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I135" s="4">
+        <v>33000</v>
       </c>
       <c r="J135" t="s">
         <v>114</v>
@@ -5627,20 +5435,20 @@
       <c r="D136" t="s">
         <v>106</v>
       </c>
-      <c r="E136">
-        <v>30000</v>
-      </c>
-      <c r="F136">
-        <v>32500</v>
-      </c>
-      <c r="G136">
-        <v>37500</v>
-      </c>
-      <c r="H136">
-        <v>60000</v>
-      </c>
-      <c r="I136">
-        <v>67500</v>
+      <c r="E136" s="4">
+        <v>32000</v>
+      </c>
+      <c r="F136" s="4">
+        <v>36000</v>
+      </c>
+      <c r="G136" s="4">
+        <v>40000</v>
+      </c>
+      <c r="H136" s="4">
+        <v>67000</v>
+      </c>
+      <c r="I136" s="4">
+        <v>77000</v>
       </c>
       <c r="J136" t="s">
         <v>107</v>
@@ -5662,20 +5470,20 @@
       <c r="D137" t="s">
         <v>113</v>
       </c>
-      <c r="E137">
-        <v>14000</v>
-      </c>
-      <c r="F137">
+      <c r="E137" s="4">
         <v>15000</v>
       </c>
-      <c r="G137">
-        <v>17000</v>
-      </c>
-      <c r="H137">
-        <v>26000</v>
-      </c>
-      <c r="I137">
-        <v>29000</v>
+      <c r="F137" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G137" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H137" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I137" s="4">
+        <v>33000</v>
       </c>
       <c r="J137" t="s">
         <v>114</v>
@@ -5697,20 +5505,20 @@
       <c r="D138" t="s">
         <v>113</v>
       </c>
-      <c r="E138">
-        <v>14000</v>
-      </c>
-      <c r="F138">
+      <c r="E138" s="4">
         <v>15000</v>
       </c>
-      <c r="G138">
-        <v>17000</v>
-      </c>
-      <c r="H138">
-        <v>26000</v>
-      </c>
-      <c r="I138">
-        <v>29000</v>
+      <c r="F138" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G138" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H138" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I138" s="4">
+        <v>33000</v>
       </c>
       <c r="J138" t="s">
         <v>114</v>
@@ -5732,20 +5540,20 @@
       <c r="D139" t="s">
         <v>58</v>
       </c>
-      <c r="E139">
-        <v>42000</v>
-      </c>
-      <c r="F139">
-        <v>44500</v>
-      </c>
-      <c r="G139">
-        <v>49500</v>
-      </c>
-      <c r="H139">
-        <v>72000</v>
-      </c>
-      <c r="I139">
-        <v>79500</v>
+      <c r="E139" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F139" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G139" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H139" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I139" s="4">
+        <v>90000</v>
       </c>
       <c r="J139" t="s">
         <v>59</v>
@@ -5767,20 +5575,20 @@
       <c r="D140" t="s">
         <v>58</v>
       </c>
-      <c r="E140">
-        <v>42000</v>
-      </c>
-      <c r="F140">
-        <v>44500</v>
-      </c>
-      <c r="G140">
-        <v>49500</v>
-      </c>
-      <c r="H140">
-        <v>72000</v>
-      </c>
-      <c r="I140">
-        <v>79500</v>
+      <c r="E140" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F140" s="4">
+        <v>49000</v>
+      </c>
+      <c r="G140" s="4">
+        <v>53000</v>
+      </c>
+      <c r="H140" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I140" s="4">
+        <v>90000</v>
       </c>
       <c r="J140" t="s">
         <v>59</v>
@@ -5802,20 +5610,20 @@
       <c r="D141" t="s">
         <v>113</v>
       </c>
-      <c r="E141">
-        <v>14000</v>
-      </c>
-      <c r="F141">
+      <c r="E141" s="4">
         <v>15000</v>
       </c>
-      <c r="G141">
-        <v>17000</v>
-      </c>
-      <c r="H141">
-        <v>26000</v>
-      </c>
-      <c r="I141">
-        <v>29000</v>
+      <c r="F141" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G141" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H141" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I141" s="4">
+        <v>33000</v>
       </c>
       <c r="J141" t="s">
         <v>114</v>
@@ -5837,20 +5645,20 @@
       <c r="D142" t="s">
         <v>113</v>
       </c>
-      <c r="E142">
-        <v>14000</v>
-      </c>
-      <c r="F142">
+      <c r="E142" s="4">
         <v>15000</v>
       </c>
-      <c r="G142">
-        <v>17000</v>
-      </c>
-      <c r="H142">
-        <v>26000</v>
-      </c>
-      <c r="I142">
-        <v>29000</v>
+      <c r="F142" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G142" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H142" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I142" s="4">
+        <v>33000</v>
       </c>
       <c r="J142" t="s">
         <v>114</v>
@@ -5872,20 +5680,20 @@
       <c r="D143" t="s">
         <v>113</v>
       </c>
-      <c r="E143">
-        <v>14000</v>
-      </c>
-      <c r="F143">
+      <c r="E143" s="4">
         <v>15000</v>
       </c>
-      <c r="G143">
-        <v>17000</v>
-      </c>
-      <c r="H143">
-        <v>26000</v>
-      </c>
-      <c r="I143">
-        <v>29000</v>
+      <c r="F143" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G143" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H143" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I143" s="4">
+        <v>33000</v>
       </c>
       <c r="J143" t="s">
         <v>114</v>
@@ -5907,20 +5715,20 @@
       <c r="D144" t="s">
         <v>6</v>
       </c>
-      <c r="E144">
-        <v>17000</v>
-      </c>
-      <c r="F144">
-        <v>19000</v>
-      </c>
-      <c r="G144">
-        <v>23000</v>
-      </c>
-      <c r="H144">
-        <v>33000</v>
-      </c>
-      <c r="I144">
-        <v>37000</v>
+      <c r="E144" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F144" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G144" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H144" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I144" s="4">
+        <v>42000</v>
       </c>
       <c r="J144" t="s">
         <v>7</v>
@@ -5942,20 +5750,20 @@
       <c r="D145" t="s">
         <v>6</v>
       </c>
-      <c r="E145">
-        <v>17000</v>
-      </c>
-      <c r="F145">
-        <v>19000</v>
-      </c>
-      <c r="G145">
-        <v>23000</v>
-      </c>
-      <c r="H145">
-        <v>33000</v>
-      </c>
-      <c r="I145">
-        <v>37000</v>
+      <c r="E145" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F145" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G145" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H145" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I145" s="4">
+        <v>42000</v>
       </c>
       <c r="J145" t="s">
         <v>7</v>
@@ -5977,20 +5785,20 @@
       <c r="D146" t="s">
         <v>6</v>
       </c>
-      <c r="E146">
-        <v>17000</v>
-      </c>
-      <c r="F146">
-        <v>19000</v>
-      </c>
-      <c r="G146">
-        <v>23000</v>
-      </c>
-      <c r="H146">
-        <v>33000</v>
-      </c>
-      <c r="I146">
-        <v>37000</v>
+      <c r="E146" s="4">
+        <v>36000</v>
+      </c>
+      <c r="F146" s="4">
+        <v>40000</v>
+      </c>
+      <c r="G146" s="4">
+        <v>48000</v>
+      </c>
+      <c r="H146" s="4">
+        <v>76000</v>
+      </c>
+      <c r="I146" s="4">
+        <v>84000</v>
       </c>
       <c r="J146" t="s">
         <v>7</v>
@@ -6001,7 +5809,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="K147">
         <v>1</v>
@@ -6026,20 +5834,20 @@
       <c r="D148" t="s">
         <v>6</v>
       </c>
-      <c r="E148">
-        <v>17000</v>
-      </c>
-      <c r="F148">
-        <v>19000</v>
-      </c>
-      <c r="G148">
-        <v>23000</v>
-      </c>
-      <c r="H148">
-        <v>33000</v>
-      </c>
-      <c r="I148">
-        <v>37000</v>
+      <c r="E148" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F148" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G148" s="4">
+        <v>24000</v>
+      </c>
+      <c r="H148" s="4">
+        <v>38000</v>
+      </c>
+      <c r="I148" s="4">
+        <v>42000</v>
       </c>
       <c r="J148" t="s">
         <v>7</v>
@@ -6061,20 +5869,20 @@
       <c r="D149" t="s">
         <v>113</v>
       </c>
-      <c r="E149">
-        <v>14000</v>
-      </c>
-      <c r="F149">
+      <c r="E149" s="4">
         <v>15000</v>
       </c>
-      <c r="G149">
-        <v>17000</v>
-      </c>
-      <c r="H149">
-        <v>26000</v>
-      </c>
-      <c r="I149">
-        <v>29000</v>
+      <c r="F149" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G149" s="4">
+        <v>18000</v>
+      </c>
+      <c r="H149" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I149" s="4">
+        <v>33000</v>
       </c>
       <c r="J149" t="s">
         <v>114</v>
